--- a/ExcelORM/ExcelORMTests/testFiles/differentTypes.xlsx
+++ b/ExcelORM/ExcelORMTests/testFiles/differentTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piotr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piotr/git/ExcelORM/ExcelORM/ExcelORMTests/testFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2816E5-46BF-45C4-938D-4D2F65AF4CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A581A71-46F1-6F41-806A-86E81C9C94F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="83" yWindow="855" windowWidth="28717" windowHeight="14625" xr2:uid="{7F2FD59B-BC86-41C1-A43E-D6B1B020ADD4}"/>
+    <workbookView xWindow="80" yWindow="860" windowWidth="28720" windowHeight="14620" xr2:uid="{7F2FD59B-BC86-41C1-A43E-D6B1B020ADD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Text</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>Double</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Byte</t>
   </si>
 </sst>
 </file>
@@ -64,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="dd\-mm\-yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yy\ h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -99,7 +114,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -119,9 +134,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,7 +174,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -265,7 +280,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,7 +422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -415,19 +430,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6318B8-1633-4738-A314-17C343E1649B}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+      <selection activeCell="J6" sqref="J6:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.06640625" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,8 +459,23 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -461,8 +492,23 @@
       <c r="E2" s="1">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2">
+        <v>872.53</v>
+      </c>
+      <c r="G2">
+        <v>8243759201</v>
+      </c>
+      <c r="H2">
+        <v>15432</v>
+      </c>
+      <c r="I2">
+        <v>73.625</v>
+      </c>
+      <c r="J2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -479,8 +525,20 @@
       <c r="E3">
         <v>45.34</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3">
+        <v>-43.19</v>
+      </c>
+      <c r="H3">
+        <v>-28761</v>
+      </c>
+      <c r="I3">
+        <v>-4.1900000000000001E-3</v>
+      </c>
+      <c r="J3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>45250.043055555558</v>
       </c>
@@ -494,8 +552,20 @@
       <c r="E4">
         <v>45.34</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4">
+        <v>12904.007</v>
+      </c>
+      <c r="G4">
+        <v>-593284175</v>
+      </c>
+      <c r="H4">
+        <v>21457</v>
+      </c>
+      <c r="J4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -510,8 +580,20 @@
       <c r="E5">
         <v>45.34</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G5">
+        <v>1200483928475</v>
+      </c>
+      <c r="H5">
+        <v>-9328</v>
+      </c>
+      <c r="I5">
+        <v>9182.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -525,8 +607,20 @@
       <c r="E6">
         <v>45.34</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6">
+        <v>-7821.64</v>
+      </c>
+      <c r="G6">
+        <v>4275930012</v>
+      </c>
+      <c r="I6">
+        <v>-142.875</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -540,8 +634,20 @@
       <c r="E7">
         <v>-45.34</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G7">
+        <v>-748291045673</v>
+      </c>
+      <c r="H7">
+        <v>30711</v>
+      </c>
+      <c r="I7">
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="J7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -554,6 +660,21 @@
       </c>
       <c r="D8">
         <v>4343</v>
+      </c>
+      <c r="F8">
+        <v>456.0009</v>
+      </c>
+      <c r="G8">
+        <v>90500482719</v>
+      </c>
+      <c r="H8">
+        <v>-14407</v>
+      </c>
+      <c r="I8">
+        <v>58.9375</v>
+      </c>
+      <c r="J8">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
